--- a/Treeview_Compartiments_staging_sapco.xlsx
+++ b/Treeview_Compartiments_staging_sapco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_staging_auto_commit_gzipfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19534EA1-F4F2-4005-ADAB-FAB5C3DFD3A5}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{A5F9D5C2-6690-4FB2-AE00-EFC583A29250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A01D5768-6FF9-4A14-B1B1-BF203DD721A1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
   </bookViews>
@@ -681,9 +681,6 @@
     <t>ZISCINVBALFINALC/</t>
   </si>
   <si>
-    <t>FINANCIALS/</t>
-  </si>
-  <si>
     <t>INVENTORY/</t>
   </si>
   <si>
@@ -1207,6 +1204,9 @@
   </si>
   <si>
     <t>COSTING</t>
+  </si>
+  <si>
+    <t>FINANCIAL/</t>
   </si>
 </sst>
 </file>
@@ -1265,6 +1265,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6934,7 +6938,7 @@
   <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6981,23 +6985,23 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
-        <v>SAPCO/Inbound/FINANCIALS/COSTING</v>
+        <v>SAPCO/Inbound/FINANCIAL/COSTING</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(C2,J2,E2,F2,G2,H2)</f>
-        <v>SAPCO/Archive/FINANCIALS/COSTING</v>
+        <v>SAPCO/Archive/FINANCIAL/COSTING</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J2" t="s">
         <v>147</v>
@@ -7006,26 +7010,26 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A65" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
-        <v>SAPCO/Inbound/FINANCIALS/PROFITABILITY/HISTORICAL</v>
+        <v>SAPCO/Inbound/FINANCIAL/PROFITABILITY/HISTORICAL</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B65" si="1">CONCATENATE(C3,J3,E3,F3,G3,H3)</f>
-        <v>SAPCO/Archive/FINANCIALS/PROFITABILITY/HISTORICAL</v>
+        <v>SAPCO/Archive/FINANCIAL/PROFITABILITY/HISTORICAL</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J3" t="s">
         <v>147</v>
@@ -7034,26 +7038,26 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>SAPCO/Inbound/FINANCIALS/PROFITABILITY/ZIPRFANLZFINLCUB</v>
+        <v>SAPCO/Inbound/FINANCIAL/PROFITABILITY/ZIPRFANLZFINLCUB</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="1"/>
-        <v>SAPCO/Archive/FINANCIALS/PROFITABILITY/ZIPRFANLZFINLCUB</v>
+        <v>SAPCO/Archive/FINANCIAL/PROFITABILITY/ZIPRFANLZFINLCUB</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J4" t="s">
         <v>147</v>
@@ -7069,16 +7073,16 @@
         <v>SAPCO/Archive/INVENTORY/BALANCE</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J5" t="s">
         <v>147</v>
@@ -7094,16 +7098,16 @@
         <v>SAPCO/Archive/INVENTORY/TRANSACTION</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J6" t="s">
         <v>147</v>
@@ -7119,16 +7123,16 @@
         <v>SAPCO/Archive/MANUFACTURING/OVERVIEW</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J7" t="s">
         <v>147</v>
@@ -7144,16 +7148,16 @@
         <v>SAPCO/Archive/MANUFACTURING/PROCESSQUALITY</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J8" t="s">
         <v>147</v>
@@ -7169,16 +7173,16 @@
         <v>SAPCO/Archive/PROCUREMENTANDSPEND/INVOICELINE</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J9" t="s">
         <v>147</v>
@@ -7194,16 +7198,16 @@
         <v>SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASEORDER</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J10" t="s">
         <v>147</v>
@@ -7219,16 +7223,16 @@
         <v>SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASERECEIPT</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J11" t="s">
         <v>147</v>
@@ -7244,16 +7248,16 @@
         <v>SAPCO/Archive/SALE/INVOICELINE</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J12" t="s">
         <v>147</v>
@@ -7269,16 +7273,16 @@
         <v>SAPCO/Archive/SALE/ORDERLINE</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J13" t="s">
         <v>147</v>
@@ -7294,16 +7298,16 @@
         <v>SAPCO/Archive/SALE/SHIPLINE</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J14" t="s">
         <v>147</v>
@@ -7319,16 +7323,16 @@
         <v>SAPCO/Archive/TEST_MASTERDATA_FIN/SHIPLINE</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J15" t="s">
         <v>147</v>
@@ -7344,7 +7348,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/FIN/FIN_T001</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -7356,7 +7360,7 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J16" t="s">
         <v>147</v>
@@ -7372,7 +7376,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A526</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -7384,7 +7388,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J17" t="s">
         <v>147</v>
@@ -7400,7 +7404,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A528</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -7412,7 +7416,7 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J18" t="s">
         <v>147</v>
@@ -7428,7 +7432,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A531</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -7440,7 +7444,7 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J19" t="s">
         <v>147</v>
@@ -7456,7 +7460,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A532</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -7468,7 +7472,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J20" t="s">
         <v>147</v>
@@ -7484,7 +7488,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A533</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -7496,7 +7500,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J21" t="s">
         <v>147</v>
@@ -7512,7 +7516,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A534</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -7524,7 +7528,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J22" t="s">
         <v>147</v>
@@ -7540,7 +7544,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A537</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -7552,7 +7556,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J23" t="s">
         <v>147</v>
@@ -7568,7 +7572,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A541</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -7580,7 +7584,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
         <v>147</v>
@@ -7596,7 +7600,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A542</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -7608,7 +7612,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J25" t="s">
         <v>147</v>
@@ -7624,7 +7628,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A701</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -7636,7 +7640,7 @@
         <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
         <v>147</v>
@@ -7652,7 +7656,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A702</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -7664,7 +7668,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
         <v>147</v>
@@ -7680,7 +7684,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/A703</v>
       </c>
       <c r="C28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -7692,7 +7696,7 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J28" t="s">
         <v>147</v>
@@ -7708,7 +7712,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR2</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -7720,7 +7724,7 @@
         <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
         <v>147</v>
@@ -7736,7 +7740,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR6</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -7748,7 +7752,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
         <v>147</v>
@@ -7764,7 +7768,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADRC</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -7776,7 +7780,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
         <v>147</v>
@@ -7792,7 +7796,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/AUSP</v>
       </c>
       <c r="C32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -7804,7 +7808,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
         <v>147</v>
@@ -7820,7 +7824,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/B501</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -7832,7 +7836,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
         <v>147</v>
@@ -7848,7 +7852,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/B503</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -7860,7 +7864,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
         <v>147</v>
@@ -7876,7 +7880,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/B504</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -7888,7 +7892,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
         <v>147</v>
@@ -7904,7 +7908,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/B511</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -7916,7 +7920,7 @@
         <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
         <v>147</v>
@@ -7932,7 +7936,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/B512</v>
       </c>
       <c r="C37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -7944,7 +7948,7 @@
         <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
         <v>147</v>
@@ -7960,7 +7964,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT000</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -7972,7 +7976,7 @@
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J38" t="s">
         <v>147</v>
@@ -7988,7 +7992,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT020</v>
       </c>
       <c r="C39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -8000,7 +8004,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J39" t="s">
         <v>147</v>
@@ -8016,7 +8020,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT100</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -8028,7 +8032,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J40" t="s">
         <v>147</v>
@@ -8044,7 +8048,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -8056,7 +8060,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J41" t="s">
         <v>147</v>
@@ -8072,7 +8076,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDIPHONE</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -8084,7 +8088,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J42" t="s">
         <v>147</v>
@@ -8100,7 +8104,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP12</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -8112,7 +8116,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J43" t="s">
         <v>147</v>
@@ -8128,7 +8132,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP13</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -8140,7 +8144,7 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J44" t="s">
         <v>147</v>
@@ -8156,7 +8160,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP21</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -8168,7 +8172,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J45" t="s">
         <v>147</v>
@@ -8184,7 +8188,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPAR</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -8196,7 +8200,7 @@
         <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J46" t="s">
         <v>147</v>
@@ -8212,7 +8216,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPP1</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -8224,7 +8228,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J47" t="s">
         <v>147</v>
@@ -8240,7 +8244,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDSDC</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -8252,7 +8256,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J48" t="s">
         <v>147</v>
@@ -8268,7 +8272,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNA1</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -8280,7 +8284,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J49" t="s">
         <v>147</v>
@@ -8296,7 +8300,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB1</v>
       </c>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -8308,7 +8312,7 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J50" t="s">
         <v>147</v>
@@ -8324,7 +8328,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB5</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -8336,7 +8340,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J51" t="s">
         <v>147</v>
@@ -8352,7 +8356,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMT</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -8364,7 +8368,7 @@
         <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J52" t="s">
         <v>147</v>
@@ -8380,7 +8384,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMTA</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -8392,7 +8396,7 @@
         <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J53" t="s">
         <v>147</v>
@@ -8408,7 +8412,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVH</v>
       </c>
       <c r="C54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -8420,7 +8424,7 @@
         <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
         <v>147</v>
@@ -8436,7 +8440,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVI</v>
       </c>
       <c r="C55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -8448,7 +8452,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J55" t="s">
         <v>147</v>
@@ -8464,7 +8468,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVP</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -8476,7 +8480,7 @@
         <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J56" t="s">
         <v>147</v>
@@ -8492,7 +8496,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVV</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -8504,7 +8508,7 @@
         <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J57" t="s">
         <v>147</v>
@@ -8520,7 +8524,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONDH</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -8532,7 +8536,7 @@
         <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J58" t="s">
         <v>147</v>
@@ -8548,7 +8552,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONH</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -8560,7 +8564,7 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J59" t="s">
         <v>147</v>
@@ -8576,7 +8580,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONM</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -8588,7 +8592,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J60" t="s">
         <v>147</v>
@@ -8604,7 +8608,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONP</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -8616,7 +8620,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J61" t="s">
         <v>147</v>
@@ -8632,7 +8636,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH001</v>
       </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -8644,7 +8648,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J62" t="s">
         <v>147</v>
@@ -8660,7 +8664,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH900</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -8672,7 +8676,7 @@
         <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J63" t="s">
         <v>147</v>
@@ -8688,7 +8692,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH903</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -8700,7 +8704,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J64" t="s">
         <v>147</v>
@@ -8716,7 +8720,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/NACH</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -8728,7 +8732,7 @@
         <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J65" t="s">
         <v>147</v>
@@ -8744,7 +8748,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXH</v>
       </c>
       <c r="C66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -8756,7 +8760,7 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J66" t="s">
         <v>147</v>
@@ -8772,7 +8776,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXL</v>
       </c>
       <c r="C67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -8784,7 +8788,7 @@
         <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J67" t="s">
         <v>147</v>
@@ -8800,7 +8804,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/TVKO</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -8812,7 +8816,7 @@
         <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J68" t="s">
         <v>147</v>
@@ -8828,7 +8832,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPPROFILE</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -8840,7 +8844,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J69" t="s">
         <v>147</v>
@@ -8856,7 +8860,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -8868,7 +8872,7 @@
         <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J70" t="s">
         <v>147</v>
@@ -8884,7 +8888,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -8896,7 +8900,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J71" t="s">
         <v>147</v>
@@ -8912,7 +8916,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/OTC/ZTCO</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -8924,7 +8928,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J72" t="s">
         <v>147</v>
@@ -8940,7 +8944,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/AFPO</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -8952,7 +8956,7 @@
         <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J73" t="s">
         <v>147</v>
@@ -8968,7 +8972,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUFK</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -8980,7 +8984,7 @@
         <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J74" t="s">
         <v>147</v>
@@ -8996,7 +9000,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/CABN</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -9008,7 +9012,7 @@
         <v>89</v>
       </c>
       <c r="G75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J75" t="s">
         <v>147</v>
@@ -9024,7 +9028,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/CAUFV</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -9036,7 +9040,7 @@
         <v>89</v>
       </c>
       <c r="G76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J76" t="s">
         <v>147</v>
@@ -9052,7 +9056,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCA</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -9064,7 +9068,7 @@
         <v>89</v>
       </c>
       <c r="G77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J77" t="s">
         <v>147</v>
@@ -9080,7 +9084,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCO</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -9092,7 +9096,7 @@
         <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J78" t="s">
         <v>147</v>
@@ -9108,7 +9112,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRHD</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -9120,7 +9124,7 @@
         <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J79" t="s">
         <v>147</v>
@@ -9136,7 +9140,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRTX</v>
       </c>
       <c r="C80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -9148,7 +9152,7 @@
         <v>89</v>
       </c>
       <c r="G80" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J80" t="s">
         <v>147</v>
@@ -9164,7 +9168,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKO</v>
       </c>
       <c r="C81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -9176,7 +9180,7 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J81" t="s">
         <v>147</v>
@@ -9192,7 +9196,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKT</v>
       </c>
       <c r="C82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -9204,7 +9208,7 @@
         <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J82" t="s">
         <v>147</v>
@@ -9220,7 +9224,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/KLAH</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -9232,7 +9236,7 @@
         <v>89</v>
       </c>
       <c r="G83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J83" t="s">
         <v>147</v>
@@ -9248,7 +9252,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAKT</v>
       </c>
       <c r="C84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -9260,7 +9264,7 @@
         <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J84" t="s">
         <v>147</v>
@@ -9276,7 +9280,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAPL</v>
       </c>
       <c r="C85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -9288,7 +9292,7 @@
         <v>89</v>
       </c>
       <c r="G85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J85" t="s">
         <v>147</v>
@@ -9304,7 +9308,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARA</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -9316,7 +9320,7 @@
         <v>89</v>
       </c>
       <c r="G86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J86" t="s">
         <v>147</v>
@@ -9332,7 +9336,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARC</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -9344,7 +9348,7 @@
         <v>89</v>
       </c>
       <c r="G87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J87" t="s">
         <v>147</v>
@@ -9360,7 +9364,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARD</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -9372,7 +9376,7 @@
         <v>89</v>
       </c>
       <c r="G88" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J88" t="s">
         <v>147</v>
@@ -9388,7 +9392,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARM</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -9400,7 +9404,7 @@
         <v>89</v>
       </c>
       <c r="G89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J89" t="s">
         <v>147</v>
@@ -9416,7 +9420,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAST</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -9428,7 +9432,7 @@
         <v>89</v>
       </c>
       <c r="G90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J90" t="s">
         <v>147</v>
@@ -9444,7 +9448,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MKAL</v>
       </c>
       <c r="C91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -9456,7 +9460,7 @@
         <v>89</v>
       </c>
       <c r="G91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J91" t="s">
         <v>147</v>
@@ -9472,7 +9476,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MLAN</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -9484,7 +9488,7 @@
         <v>89</v>
       </c>
       <c r="G92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J92" t="s">
         <v>147</v>
@@ -9500,7 +9504,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/MVKE</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -9512,7 +9516,7 @@
         <v>89</v>
       </c>
       <c r="G93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J93" t="s">
         <v>147</v>
@@ -9528,7 +9532,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLKO</v>
       </c>
       <c r="C94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -9540,7 +9544,7 @@
         <v>89</v>
       </c>
       <c r="G94" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J94" t="s">
         <v>147</v>
@@ -9556,7 +9560,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLMK</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
@@ -9568,7 +9572,7 @@
         <v>89</v>
       </c>
       <c r="G95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J95" t="s">
         <v>147</v>
@@ -9584,7 +9588,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLPO</v>
       </c>
       <c r="C96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -9596,7 +9600,7 @@
         <v>89</v>
       </c>
       <c r="G96" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J96" t="s">
         <v>147</v>
@@ -9612,7 +9616,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVK</v>
       </c>
       <c r="C97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -9624,7 +9628,7 @@
         <v>89</v>
       </c>
       <c r="G97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J97" t="s">
         <v>147</v>
@@ -9640,7 +9644,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVM</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -9652,7 +9656,7 @@
         <v>89</v>
       </c>
       <c r="G98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J98" t="s">
         <v>147</v>
@@ -9668,7 +9672,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVMT</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -9680,7 +9684,7 @@
         <v>89</v>
       </c>
       <c r="G99" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J99" t="s">
         <v>147</v>
@@ -9696,7 +9700,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVV</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -9708,7 +9712,7 @@
         <v>89</v>
       </c>
       <c r="G100" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J100" t="s">
         <v>147</v>
@@ -9724,7 +9728,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMAT</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -9736,7 +9740,7 @@
         <v>89</v>
       </c>
       <c r="G101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J101" t="s">
         <v>147</v>
@@ -9752,7 +9756,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTB</v>
       </c>
       <c r="C102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
@@ -9764,7 +9768,7 @@
         <v>89</v>
       </c>
       <c r="G102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J102" t="s">
         <v>147</v>
@@ -9780,7 +9784,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTT</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -9792,7 +9796,7 @@
         <v>89</v>
       </c>
       <c r="G103" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J103" t="s">
         <v>147</v>
@@ -9808,7 +9812,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMK</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -9820,7 +9824,7 @@
         <v>89</v>
       </c>
       <c r="G104" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J104" t="s">
         <v>147</v>
@@ -9836,7 +9840,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMZ</v>
       </c>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -9848,7 +9852,7 @@
         <v>89</v>
       </c>
       <c r="G105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J105" t="s">
         <v>147</v>
@@ -9864,7 +9868,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/RESB</v>
       </c>
       <c r="C106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -9876,7 +9880,7 @@
         <v>89</v>
       </c>
       <c r="G106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J106" t="s">
         <v>147</v>
@@ -9892,7 +9896,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -9904,7 +9908,7 @@
         <v>89</v>
       </c>
       <c r="G107" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J107" t="s">
         <v>147</v>
@@ -9920,7 +9924,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/STKO</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -9932,7 +9936,7 @@
         <v>89</v>
       </c>
       <c r="G108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J108" t="s">
         <v>147</v>
@@ -9948,7 +9952,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/STPO</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -9960,7 +9964,7 @@
         <v>89</v>
       </c>
       <c r="G109" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J109" t="s">
         <v>147</v>
@@ -9976,7 +9980,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTM/TCRCOT</v>
       </c>
       <c r="C110" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -9988,7 +9992,7 @@
         <v>89</v>
       </c>
       <c r="G110" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J110" t="s">
         <v>147</v>
@@ -10004,7 +10008,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/A017</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
@@ -10016,7 +10020,7 @@
         <v>90</v>
       </c>
       <c r="G111" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J111" t="s">
         <v>147</v>
@@ -10032,7 +10036,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/A018</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -10044,7 +10048,7 @@
         <v>90</v>
       </c>
       <c r="G112" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J112" t="s">
         <v>147</v>
@@ -10060,7 +10064,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINA</v>
       </c>
       <c r="C113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -10072,7 +10076,7 @@
         <v>90</v>
       </c>
       <c r="G113" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J113" t="s">
         <v>147</v>
@@ -10088,7 +10092,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINE</v>
       </c>
       <c r="C114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -10100,7 +10104,7 @@
         <v>90</v>
       </c>
       <c r="G114" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J114" t="s">
         <v>147</v>
@@ -10116,7 +10120,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/EORD</v>
       </c>
       <c r="C115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
@@ -10128,7 +10132,7 @@
         <v>90</v>
       </c>
       <c r="G115" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J115" t="s">
         <v>147</v>
@@ -10144,7 +10148,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/KNBK</v>
       </c>
       <c r="C116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
@@ -10156,7 +10160,7 @@
         <v>90</v>
       </c>
       <c r="G116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J116" t="s">
         <v>147</v>
@@ -10172,7 +10176,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFA1</v>
       </c>
       <c r="C117" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -10184,7 +10188,7 @@
         <v>90</v>
       </c>
       <c r="G117" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J117" t="s">
         <v>147</v>
@@ -10200,7 +10204,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFB1</v>
       </c>
       <c r="C118" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -10212,7 +10216,7 @@
         <v>90</v>
       </c>
       <c r="G118" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J118" t="s">
         <v>147</v>
@@ -10228,7 +10232,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBK</v>
       </c>
       <c r="C119" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -10240,7 +10244,7 @@
         <v>90</v>
       </c>
       <c r="G119" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J119" t="s">
         <v>147</v>
@@ -10256,7 +10260,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBW</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -10268,7 +10272,7 @@
         <v>90</v>
       </c>
       <c r="G120" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J120" t="s">
         <v>147</v>
@@ -10284,7 +10288,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFM1</v>
       </c>
       <c r="C121" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -10296,7 +10300,7 @@
         <v>90</v>
       </c>
       <c r="G121" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J121" t="s">
         <v>147</v>
@@ -10312,7 +10316,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/T001W</v>
       </c>
       <c r="C122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
@@ -10324,7 +10328,7 @@
         <v>90</v>
       </c>
       <c r="G122" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J122" t="s">
         <v>147</v>
@@ -10340,7 +10344,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/T024E</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -10352,7 +10356,7 @@
         <v>90</v>
       </c>
       <c r="G123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J123" t="s">
         <v>147</v>
@@ -10368,7 +10372,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/PTP/WYT3</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -10380,7 +10384,7 @@
         <v>90</v>
       </c>
       <c r="G124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J124" t="s">
         <v>147</v>
@@ -10396,7 +10400,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANEP</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -10408,7 +10412,7 @@
         <v>91</v>
       </c>
       <c r="G125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J125" t="s">
         <v>147</v>
@@ -10424,7 +10428,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLA</v>
       </c>
       <c r="C126" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -10436,7 +10440,7 @@
         <v>91</v>
       </c>
       <c r="G126" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J126" t="s">
         <v>147</v>
@@ -10452,7 +10456,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLB</v>
       </c>
       <c r="C127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -10464,7 +10468,7 @@
         <v>91</v>
       </c>
       <c r="G127" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J127" t="s">
         <v>147</v>
@@ -10480,7 +10484,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLC</v>
       </c>
       <c r="C128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -10492,7 +10496,7 @@
         <v>91</v>
       </c>
       <c r="G128" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J128" t="s">
         <v>147</v>
@@ -10508,7 +10512,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLH</v>
       </c>
       <c r="C129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -10520,7 +10524,7 @@
         <v>91</v>
       </c>
       <c r="G129" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J129" t="s">
         <v>147</v>
@@ -10536,7 +10540,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ</v>
       </c>
       <c r="C130" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
@@ -10548,7 +10552,7 @@
         <v>91</v>
       </c>
       <c r="G130" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J130" t="s">
         <v>147</v>
@@ -10564,7 +10568,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF</v>
       </c>
       <c r="C131" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -10576,7 +10580,7 @@
         <v>91</v>
       </c>
       <c r="G131" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J131" t="s">
         <v>147</v>
@@ -10592,7 +10596,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA</v>
       </c>
       <c r="C132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -10604,7 +10608,7 @@
         <v>91</v>
       </c>
       <c r="G132" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J132" t="s">
         <v>147</v>
@@ -10620,7 +10624,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET</v>
       </c>
       <c r="C133" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -10632,7 +10636,7 @@
         <v>91</v>
       </c>
       <c r="G133" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J133" t="s">
         <v>147</v>
@@ -10648,7 +10652,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS</v>
       </c>
       <c r="C134" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -10660,7 +10664,7 @@
         <v>91</v>
       </c>
       <c r="G134" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J134" t="s">
         <v>147</v>
@@ -10676,7 +10680,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS</v>
       </c>
       <c r="C135" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
@@ -10688,7 +10692,7 @@
         <v>91</v>
       </c>
       <c r="G135" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J135" t="s">
         <v>147</v>
@@ -10704,7 +10708,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT</v>
       </c>
       <c r="C136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -10716,7 +10720,7 @@
         <v>91</v>
       </c>
       <c r="G136" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J136" t="s">
         <v>147</v>
@@ -10732,7 +10736,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI</v>
       </c>
       <c r="C137" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -10744,7 +10748,7 @@
         <v>91</v>
       </c>
       <c r="G137" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J137" t="s">
         <v>147</v>
@@ -10760,7 +10764,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ</v>
       </c>
       <c r="C138" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -10772,7 +10776,7 @@
         <v>91</v>
       </c>
       <c r="G138" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J138" t="s">
         <v>147</v>
@@ -10788,7 +10792,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS</v>
       </c>
       <c r="C139" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
@@ -10800,7 +10804,7 @@
         <v>91</v>
       </c>
       <c r="G139" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J139" t="s">
         <v>147</v>
@@ -10816,7 +10820,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1</v>
       </c>
       <c r="C140" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
@@ -10828,7 +10832,7 @@
         <v>91</v>
       </c>
       <c r="G140" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J140" t="s">
         <v>147</v>
@@ -10844,7 +10848,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT</v>
       </c>
       <c r="C141" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
@@ -10856,7 +10860,7 @@
         <v>91</v>
       </c>
       <c r="G141" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J141" t="s">
         <v>147</v>
@@ -10872,7 +10876,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1</v>
       </c>
       <c r="C142" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D142" t="s">
         <v>4</v>
@@ -10884,7 +10888,7 @@
         <v>91</v>
       </c>
       <c r="G142" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J142" t="s">
         <v>147</v>
@@ -10900,7 +10904,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG</v>
       </c>
       <c r="C143" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
@@ -10912,7 +10916,7 @@
         <v>91</v>
       </c>
       <c r="G143" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J143" t="s">
         <v>147</v>
@@ -10928,7 +10932,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK</v>
       </c>
       <c r="C144" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -10940,7 +10944,7 @@
         <v>91</v>
       </c>
       <c r="G144" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J144" t="s">
         <v>147</v>
@@ -10956,7 +10960,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/AQUA</v>
       </c>
       <c r="C145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -10968,7 +10972,7 @@
         <v>92</v>
       </c>
       <c r="G145" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J145" t="s">
         <v>147</v>
@@ -10984,7 +10988,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/BINMAT</v>
       </c>
       <c r="C146" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -10996,7 +11000,7 @@
         <v>92</v>
       </c>
       <c r="G146" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J146" t="s">
         <v>147</v>
@@ -11012,7 +11016,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/CONDINDX</v>
       </c>
       <c r="C147" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -11024,7 +11028,7 @@
         <v>92</v>
       </c>
       <c r="G147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J147" t="s">
         <v>147</v>
@@ -11040,7 +11044,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/HUHDR</v>
       </c>
       <c r="C148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -11052,7 +11056,7 @@
         <v>92</v>
       </c>
       <c r="G148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J148" t="s">
         <v>147</v>
@@ -11068,7 +11072,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/LAGP</v>
       </c>
       <c r="C149" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -11080,7 +11084,7 @@
         <v>92</v>
       </c>
       <c r="G149" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J149" t="s">
         <v>147</v>
@@ -11096,7 +11100,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWH</v>
       </c>
       <c r="C150" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -11108,7 +11112,7 @@
         <v>92</v>
       </c>
       <c r="G150" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J150" t="s">
         <v>147</v>
@@ -11124,7 +11128,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWHST</v>
       </c>
       <c r="C151" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
@@ -11136,7 +11140,7 @@
         <v>92</v>
       </c>
       <c r="G151" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J151" t="s">
         <v>147</v>
@@ -11152,7 +11156,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA</v>
       </c>
       <c r="C152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -11164,7 +11168,7 @@
         <v>92</v>
       </c>
       <c r="G152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J152" t="s">
         <v>147</v>
@@ -11180,7 +11184,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF</v>
       </c>
       <c r="C153" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -11192,7 +11196,7 @@
         <v>92</v>
       </c>
       <c r="G153" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J153" t="s">
         <v>147</v>
@@ -11208,7 +11212,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG</v>
       </c>
       <c r="C154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -11220,7 +11224,7 @@
         <v>92</v>
       </c>
       <c r="G154" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J154" t="s">
         <v>147</v>
@@ -11236,7 +11240,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/PAPAK</v>
       </c>
       <c r="C155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
@@ -11248,7 +11252,7 @@
         <v>92</v>
       </c>
       <c r="G155" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J155" t="s">
         <v>147</v>
@@ -11264,7 +11268,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/PNPAKH</v>
       </c>
       <c r="C156" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -11276,7 +11280,7 @@
         <v>92</v>
       </c>
       <c r="G156" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J156" t="s">
         <v>147</v>
@@ -11292,7 +11296,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKC</v>
       </c>
       <c r="C157" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
@@ -11304,7 +11308,7 @@
         <v>92</v>
       </c>
       <c r="G157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J157" t="s">
         <v>147</v>
@@ -11320,7 +11324,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKL</v>
       </c>
       <c r="C158" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
@@ -11332,7 +11336,7 @@
         <v>92</v>
       </c>
       <c r="G158" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J158" t="s">
         <v>147</v>
@@ -11348,7 +11352,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/QUAN</v>
       </c>
       <c r="C159" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
@@ -11360,7 +11364,7 @@
         <v>92</v>
       </c>
       <c r="G159" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J159" t="s">
         <v>147</v>
@@ -11376,7 +11380,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH</v>
       </c>
       <c r="C160" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -11391,7 +11395,7 @@
         <v>128</v>
       </c>
       <c r="H160" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J160" t="s">
         <v>147</v>
@@ -11407,7 +11411,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST</v>
       </c>
       <c r="C161" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
@@ -11422,7 +11426,7 @@
         <v>128</v>
       </c>
       <c r="H161" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J161" t="s">
         <v>147</v>
@@ -11438,7 +11442,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TR</v>
       </c>
       <c r="C162" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
@@ -11453,7 +11457,7 @@
         <v>128</v>
       </c>
       <c r="H162" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J162" t="s">
         <v>147</v>
@@ -11469,7 +11473,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRM</v>
       </c>
       <c r="C163" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
@@ -11484,7 +11488,7 @@
         <v>128</v>
       </c>
       <c r="H163" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J163" t="s">
         <v>147</v>
@@ -11500,7 +11504,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMC</v>
       </c>
       <c r="C164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
@@ -11515,7 +11519,7 @@
         <v>128</v>
       </c>
       <c r="H164" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J164" t="s">
         <v>147</v>
@@ -11531,7 +11535,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR</v>
       </c>
       <c r="C165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D165" t="s">
         <v>4</v>
@@ -11546,7 +11550,7 @@
         <v>128</v>
       </c>
       <c r="H165" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J165" t="s">
         <v>147</v>
@@ -11562,7 +11566,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND</v>
       </c>
       <c r="C166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -11574,7 +11578,7 @@
         <v>92</v>
       </c>
       <c r="G166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J166" t="s">
         <v>147</v>
@@ -11590,7 +11594,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/TOENTITY</v>
       </c>
       <c r="C167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
@@ -11605,7 +11609,7 @@
         <v>184</v>
       </c>
       <c r="H167" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J167" t="s">
         <v>147</v>
@@ -11621,7 +11625,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONED</v>
       </c>
       <c r="C168" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
@@ -11636,7 +11640,7 @@
         <v>184</v>
       </c>
       <c r="H168" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J168" t="s">
         <v>147</v>
@@ -11652,7 +11656,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONEP</v>
       </c>
       <c r="C169" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
@@ -11667,7 +11671,7 @@
         <v>184</v>
       </c>
       <c r="H169" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J169" t="s">
         <v>147</v>
@@ -11683,7 +11687,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONER</v>
       </c>
       <c r="C170" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
@@ -11698,7 +11702,7 @@
         <v>184</v>
       </c>
       <c r="H170" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J170" t="s">
         <v>147</v>
@@ -11714,7 +11718,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE</v>
       </c>
       <c r="C171" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
@@ -11729,7 +11733,7 @@
         <v>184</v>
       </c>
       <c r="H171" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J171" t="s">
         <v>147</v>
@@ -11745,7 +11749,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/AQUA</v>
       </c>
       <c r="C172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
@@ -11760,7 +11764,7 @@
         <v>185</v>
       </c>
       <c r="H172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J172" t="s">
         <v>147</v>
@@ -11776,7 +11780,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/BINMAT</v>
       </c>
       <c r="C173" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -11791,7 +11795,7 @@
         <v>185</v>
       </c>
       <c r="H173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J173" t="s">
         <v>147</v>
@@ -11807,7 +11811,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/HUHDR</v>
       </c>
       <c r="C174" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -11822,7 +11826,7 @@
         <v>185</v>
       </c>
       <c r="H174" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J174" t="s">
         <v>147</v>
@@ -11838,7 +11842,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/LAGP</v>
       </c>
       <c r="C175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -11853,7 +11857,7 @@
         <v>185</v>
       </c>
       <c r="H175" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J175" t="s">
         <v>147</v>
@@ -11869,7 +11873,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PAPAK</v>
       </c>
       <c r="C176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
@@ -11884,7 +11888,7 @@
         <v>185</v>
       </c>
       <c r="H176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J176" t="s">
         <v>147</v>
@@ -11900,7 +11904,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PNPAKH</v>
       </c>
       <c r="C177" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -11915,7 +11919,7 @@
         <v>185</v>
       </c>
       <c r="H177" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J177" t="s">
         <v>147</v>
@@ -11931,7 +11935,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKC</v>
       </c>
       <c r="C178" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
@@ -11946,7 +11950,7 @@
         <v>185</v>
       </c>
       <c r="H178" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J178" t="s">
         <v>147</v>
@@ -11962,7 +11966,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKL</v>
       </c>
       <c r="C179" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D179" t="s">
         <v>4</v>
@@ -11977,7 +11981,7 @@
         <v>185</v>
       </c>
       <c r="H179" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J179" t="s">
         <v>147</v>
@@ -11993,7 +11997,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/QUAN</v>
       </c>
       <c r="C180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -12008,7 +12012,7 @@
         <v>185</v>
       </c>
       <c r="H180" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J180" t="s">
         <v>147</v>
@@ -12024,7 +12028,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L</v>
       </c>
       <c r="C181" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -12036,7 +12040,7 @@
         <v>92</v>
       </c>
       <c r="G181" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J181" t="s">
         <v>147</v>
@@ -12052,7 +12056,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/TR</v>
       </c>
       <c r="C182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
@@ -12064,7 +12068,7 @@
         <v>92</v>
       </c>
       <c r="G182" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J182" t="s">
         <v>147</v>
@@ -12080,7 +12084,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM</v>
       </c>
       <c r="C183" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -12092,7 +12096,7 @@
         <v>92</v>
       </c>
       <c r="G183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J183" t="s">
         <v>147</v>
@@ -12108,7 +12112,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC</v>
       </c>
       <c r="C184" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -12120,7 +12124,7 @@
         <v>92</v>
       </c>
       <c r="G184" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J184" t="s">
         <v>147</v>
@@ -12136,7 +12140,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR</v>
       </c>
       <c r="C185" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
@@ -12148,7 +12152,7 @@
         <v>92</v>
       </c>
       <c r="G185" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J185" t="s">
         <v>147</v>
@@ -12164,7 +12168,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
       </c>
       <c r="C186" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
@@ -12192,7 +12196,7 @@
         <v>SAPCO/Archive/MASTER_DATA_TABLES/TEST/T001</v>
       </c>
       <c r="C187" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -12204,7 +12208,7 @@
         <v>93</v>
       </c>
       <c r="G187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J187" t="s">
         <v>147</v>
